--- a/data/trans_dic/P25_3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25_3-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece colesterol alto</t>
+          <t>Población que padece colesterol alto (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,12 +705,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,47 +720,77 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>4,65%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,95%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,16%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>2,19%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,67%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6,13%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>6,19%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1,63%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>2,35%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,82%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>3,53%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,34%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,39%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>3,42%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>4,28%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,8</t>
+          <t>0,0; 4,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 5,93</t>
+          <t>0,73; 6,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,84</t>
+          <t>1,8; 9,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,59</t>
+          <t>0,0; 4,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,63; 6,3</t>
+          <t>1,81; 10,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 5,05</t>
+          <t>0,0; 4,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,65; 11,81</t>
+          <t>0,57; 5,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,43</t>
+          <t>0,49; 4,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 4,37</t>
+          <t>2,5; 11,34</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,11</t>
+          <t>2,65; 12,12</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,63; 6,14</t>
+          <t>1,39; 7,81</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 3,08</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1,17; 4,6</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,25; 2,35</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>2,92; 8,98</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>1,64; 6,68</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1,98; 7,85</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>8,99%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>3,79%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>3,66%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>1,87%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3,5%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3,56%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>5,3%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>4,0%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>3,19%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>3,19%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>6,51%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>4,01%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>3,27%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>3,26%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>6,45%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>4,53%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>4,54%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 8,48</t>
+          <t>1,97; 8,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 7,85</t>
+          <t>2,22; 8,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 6,01</t>
+          <t>1,22; 6,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,9; 8,73</t>
+          <t>4,67; 14,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 7,91</t>
+          <t>0,88; 9,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,65</t>
+          <t>0,82; 7,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 6,34</t>
+          <t>1,61; 7,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 9,44</t>
+          <t>0,44; 4,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 6,35</t>
+          <t>1,72; 7,0</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 5,31</t>
+          <t>1,28; 7,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 5,14</t>
+          <t>2,59; 9,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,54; 7,53</t>
+          <t>3,63; 11,06</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2,21; 6,68</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1,94; 5,56</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>1,98; 5,42</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>4,0; 9,83</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>2,57; 7,56</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>2,57; 7,27</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,33%</t>
+          <t>11,77%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>14,68%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>12,05%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,45%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>6,59%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6,14%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8,39%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>6,99%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>9,59%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>9,35%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>8,32%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>11,72%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>8,27%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>9,1%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>8,67%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>11,44%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
           <t>9,68%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>13,33%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,23; 24,21</t>
+          <t>7,1; 18,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,62; 18,9</t>
+          <t>8,14; 17,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,6; 16,99</t>
+          <t>7,79; 19,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,08; 17,78</t>
+          <t>10,16; 19,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 8,84</t>
+          <t>8,08; 16,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,28; 9,64</t>
+          <t>9,61; 22,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,82; 8,5</t>
+          <t>3,22; 8,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,08; 10,68</t>
+          <t>4,49; 9,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,27; 16,22</t>
+          <t>3,91; 8,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,97; 12,7</t>
+          <t>5,28; 13,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,11; 11,31</t>
+          <t>4,22; 10,76</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,18; 12,98</t>
+          <t>8,14; 16,5</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>5,73; 12,19</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>6,94; 12,16</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>6,35; 12,05</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>8,61; 14,82</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>7,2; 12,91</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>9,82; 17,69</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>16,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>22,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>19,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>20,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>15,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>14,41%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>18,6%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>22,8%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>18,92%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>13,7%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>14,87%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>17,47%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,05%</t>
+          <t>21,06%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>13,93%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>15,05%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>17,42%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>22,63%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>19,06%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>20,58%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,96; 16,73</t>
+          <t>9,44; 17,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,68; 19,78</t>
+          <t>12,16; 20,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,22; 21,56</t>
+          <t>12,36; 21,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,07; 26,76</t>
+          <t>17,6; 28,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,09; 18,65</t>
+          <t>13,95; 27,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,18; 18,47</t>
+          <t>15,14; 26,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,93; 22,47</t>
+          <t>11,29; 19,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,68; 24,1</t>
+          <t>11,1; 18,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,06; 16,93</t>
+          <t>14,75; 22,57</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,15; 17,44</t>
+          <t>18,35; 27,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,72; 20,68</t>
+          <t>14,14; 25,01</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,46; 23,66</t>
+          <t>16,22; 26,8</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>11,15; 16,96</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>12,52; 17,94</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>14,55; 20,52</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>19,33; 26,44</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>15,41; 23,52</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>16,86; 24,51</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>21,9%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>26,13%</t>
+          <t>26,46%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>28,54%</t>
+          <t>28,55%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>34,71%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>36,71%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>22,67%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>28,42%</t>
+          <t>33,11%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>25,2%</t>
+          <t>22,76%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>28,36%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>25,14%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>36,17%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>35,93%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>22,28%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>27,27%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>26,84%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>33,8%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>22,34%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>27,4%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>26,81%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>35,46%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
           <t>36,3%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>33,46%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,64; 27,56</t>
+          <t>16,41; 27,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,98; 31,78</t>
+          <t>21,56; 32,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,32; 35,46</t>
+          <t>23,15; 34,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>29,76; 44,12</t>
+          <t>27,9; 41,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,35; 28,43</t>
+          <t>29,72; 44,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,16; 34,33</t>
+          <t>26,79; 40,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,99; 30,64</t>
+          <t>17,71; 28,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>29,25; 43,2</t>
+          <t>23,19; 34,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,45; 26,18</t>
+          <t>19,89; 30,65</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>23,38; 31,36</t>
+          <t>29,19; 43,6</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>22,89; 30,8</t>
+          <t>29,86; 42,37</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>31,72; 41,05</t>
+          <t>27,75; 40,3</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>18,56; 26,18</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>23,79; 31,41</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>22,84; 31,2</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>30,87; 40,56</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>31,53; 41,5</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>28,89; 38,05</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>31,48%</t>
+          <t>31,05%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>30,01%</t>
+          <t>30,15%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>35,95%</t>
+          <t>25,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>32,61%</t>
+          <t>35,94%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>30,63%</t>
+          <t>24,12%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>31,26%</t>
+          <t>32,59%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>33,12%</t>
+          <t>31,13%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>32,12%</t>
+          <t>31,86%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>25,42%</t>
+          <t>33,61%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>30,72%</t>
+          <t>33,14%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
+          <t>35,68%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>31,92%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>25,83%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>31,11%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>30,26%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
           <t>34,32%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>30,81%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24,36; 39,52</t>
+          <t>24,52; 38,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,01; 25,26</t>
+          <t>13,09; 24,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>23,48; 36,84</t>
+          <t>22,53; 36,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>27,7; 44,5</t>
+          <t>19,19; 34,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,07; 39,11</t>
+          <t>28,78; 45,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,64; 36,73</t>
+          <t>18,01; 31,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,53; 38,11</t>
+          <t>26,41; 39,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>24,38; 42,97</t>
+          <t>25,23; 36,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>27,25; 37,36</t>
+          <t>25,49; 37,43</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>21,36; 30,09</t>
+          <t>26,57; 42,01</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>25,85; 35,49</t>
+          <t>24,45; 42,23</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>28,43; 41,43</t>
+          <t>27,99; 44,24</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>26,79; 36,93</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>21,87; 30,19</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>27,25; 36,11</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>25,23; 36,0</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>27,87; 40,74</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>25,69; 36,47</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>13,58%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>13,17%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>14,49%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>18,57%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>17,83%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>16,51%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
           <t>14,26%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>13,05%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>14,42%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>17,83%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>14,18%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>14,41%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>14,83%</t>
-        </is>
-      </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>14,48%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>15,03%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>19,1%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>18,84%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>14,22%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>13,75%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>14,63%</t>
-        </is>
-      </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
+          <t>19,94%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>13,93%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>13,84%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>14,77%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>18,84%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
           <t>18,34%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>18,23%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,13; 17,21</t>
+          <t>11,61; 15,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,29; 14,94</t>
+          <t>11,49; 14,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,43; 16,53</t>
+          <t>12,58; 16,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,54; 20,54</t>
+          <t>16,22; 21,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,29; 16,29</t>
+          <t>15,34; 20,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,81; 16,3</t>
+          <t>14,33; 19,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,04; 16,53</t>
+          <t>12,41; 16,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,51; 21,48</t>
+          <t>12,78; 16,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,67; 15,93</t>
+          <t>13,29; 16,94</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>12,42; 14,93</t>
+          <t>16,9; 21,75</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13,36; 16,0</t>
+          <t>16,43; 21,7</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>16,46; 20,19</t>
+          <t>17,5; 22,68</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>12,61; 15,36</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>12,61; 15,18</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>13,58; 16,16</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>17,07; 20,8</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>16,53; 20,33</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>16,65; 20,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece colesterol alto (tasa de respuesta: 99,76%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6988</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13491</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>21892</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2175</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5964</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11271</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>8608</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>29240</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2315</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1360</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>12952</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>24763</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>8608</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>51132</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>2715</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>3535</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 24320</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3823; 32986</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8476; 45808</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2043</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>797; 4514</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21485</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2950; 26379</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2542; 23824</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11924; 54114</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>991; 4533</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>537; 3009</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3059; 29769</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>12148; 47698</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>2557; 24081</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>27733; 85160</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>1307; 5306</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>1637; 6484</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>24462</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>25337</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>18183</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>51892</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1870</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1321</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>19254</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9445</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>18011</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>17967</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2492</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2997</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>43716</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>34782</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>36194</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>69859</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>4362</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>4318</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11280; 47807</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>12465; 46137</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7263; 37258</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>26927; 82675</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>434; 4445</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>401; 3628</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8303; 39243</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2221; 24147</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8874; 36051</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>6467; 38471</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1215; 4281</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1669; 5089</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>24046; 72758</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>20639; 59224</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>21934; 60195</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>43327; 106385</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>2475; 7283</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>2444; 6911</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>76522</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>79449</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>76756</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>99161</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8980</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>38801</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>47243</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>43689</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>60183</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3702</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>6431</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>115324</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>126692</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>120445</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>159343</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>10927</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>15411</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>48538; 128528</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>54967; 117611</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>52810; 129619</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>68633; 132633</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4845; 9979</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5837; 13432</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>22913; 61322</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>32141; 71581</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>27802; 63375</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>37890; 98607</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2234; 5703</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4464; 9049</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>79864; 169922</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>96588; 169265</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>88230; 167365</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>120000; 206365</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>8137; 14584</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>11355; 20449</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>82692</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>100629</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>102821</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>146020</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>11123</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>11465</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>102434</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>96528</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>122090</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>149597</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>9872</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>11230</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>185126</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>197157</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>224911</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>295617</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>20994</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>22695</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>61122; 113687</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>77877; 129982</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>78459; 134085</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>114396; 184674</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>8086; 15814</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>8623; 15154</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>76931; 133881</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>74374; 121827</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>96810; 148175</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>120382; 182782</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>7380; 13051</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>8648; 14287</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>148178; 225372</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>164022; 235117</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>187824; 265007</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>252462; 345323</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>16978; 25910</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>18596; 27024</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>107828</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>133309</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>140142</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>171849</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>16150</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>14694</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>114870</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>140071</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>128491</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>186974</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>17438</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>15834</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>222698</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>273379</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>268634</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>358823</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>33588</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>30528</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>80795; 134336</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>108660; 164041</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>113671; 169216</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>138117; 204972</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>13073; 19523</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>11891; 17875</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>89371; 142742</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>114537; 168300</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>101654; 156621</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>150886; 225385</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>14493; 20565</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>13000; 18881</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>185057; 260943</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>237379; 313436</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>228844; 312569</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>312401; 410438</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>29173; 38395</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>26360; 34714</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>168426</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>99240</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>160511</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>147173</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>16684</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>11058</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>230584</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>215778</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>219907</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>243102</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>20965</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>22475</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>315018</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>380419</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>390275</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>37649</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>33533</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>133035; 211205</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>68932; 129733</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>119954; 194461</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>108689; 196523</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>13359; 20933</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>8255; 14434</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>186872; 278340</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>174853; 253543</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>175955; 258343</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>192197; 303917</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>15470; 26716</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>17630; 27871</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>334922; 461647</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>266696; 368197</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>333230; 441458</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>325388; 464327</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>30566; 44683</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>27963; 39698</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>360.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>442.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>473.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>442.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>372.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>396.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>466919</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>451456</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>498413</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>637987</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>53451</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>49692</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>511908</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>520335</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>540798</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>687063</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>56783</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>60328</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>978826</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>971791</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1039211</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>1325049</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>110235</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>110020</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>399092; 549545</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>393872; 509773</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>432831; 568568</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>557194; 729994</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>45986; 61472</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>43148; 57651</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>445279; 581770</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>459102; 583079</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>478300; 609555</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>607789; 782166</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>49527; 65386</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>52946; 68617</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>885828; 1079334</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>885459; 1065949</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>955581; 1137602</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>1200335; 1462679</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>99383; 122203</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>100475; 122550</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
